--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2242.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2242.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.297759111954151</v>
+        <v>1.104551076889038</v>
       </c>
       <c r="B1">
-        <v>2.759074692682822</v>
+        <v>2.513625383377075</v>
       </c>
       <c r="C1">
-        <v>7.86266099368691</v>
+        <v>6.267829895019531</v>
       </c>
       <c r="D1">
-        <v>2.037831127154937</v>
+        <v>2.191050291061401</v>
       </c>
       <c r="E1">
-        <v>1.089693805510838</v>
+        <v>1.262075662612915</v>
       </c>
     </row>
   </sheetData>
